--- a/TABELASCDIGOSDERECEITA.xlsx
+++ b/TABELASCDIGOSDERECEITA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Automacao_rfb\d-bitos_rfb_pr-mor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5334599-0D5E-4ECF-BC91-CC4995BF9F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681FA947-AFAF-497F-A75F-5208A72142FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="970">
   <si>
     <t>Código de receita</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>CP PATRONAL - ADICIONAL GILRAT COOP DE PRO- DUÇÃO-RT</t>
-  </si>
-  <si>
-    <t>1145-01</t>
   </si>
   <si>
     <t>CP PATRONAL – COMERC PROD RUR – SEG ESP</t>
@@ -2929,6 +2926,12 @@
   </si>
   <si>
     <t>Simples Nac.</t>
+  </si>
+  <si>
+    <t>1345--01</t>
+  </si>
+  <si>
+    <t>DCTF</t>
   </si>
 </sst>
 </file>
@@ -3001,7 +3004,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3061,11 +3064,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3117,6 +3140,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3335,10 +3364,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3860,595 +3889,595 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="3">
+        <v>134</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4456,23 +4485,23 @@
         <v>1719</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4480,7 +4509,7 @@
         <v>596443</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4488,15 +4517,15 @@
         <v>607035</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4504,183 +4533,183 @@
         <v>2337950</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4688,7 +4717,7 @@
         <v>396291</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4696,7 +4725,7 @@
         <v>396381</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4704,7 +4733,7 @@
         <v>396442</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4712,20 +4741,20 @@
         <v>398482</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>3</v>
@@ -4733,82 +4762,82 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4816,7 +4845,7 @@
         <v>59537</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4824,7 +4853,7 @@
         <v>477891</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4832,7 +4861,7 @@
         <v>483369</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4840,7 +4869,7 @@
         <v>503093</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4848,7 +4877,7 @@
         <v>504189</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4856,7 +4885,7 @@
         <v>557393</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4864,7 +4893,7 @@
         <v>596474</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4872,7 +4901,7 @@
         <v>598999</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4880,7 +4909,7 @@
         <v>604843</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4888,7 +4917,7 @@
         <v>607066</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4896,7 +4925,7 @@
         <v>613244</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4904,7 +4933,7 @@
         <v>657074</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4912,7 +4941,7 @@
         <v>674240</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4920,7 +4949,7 @@
         <v>683006</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4928,7 +4957,7 @@
         <v>798089</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4936,7 +4965,7 @@
         <v>912044</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4944,7 +4973,7 @@
         <v>915696</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4952,7 +4981,7 @@
         <v>916427</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4960,7 +4989,7 @@
         <v>1142846</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4968,7 +4997,7 @@
         <v>1145037</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4976,7 +5005,7 @@
         <v>1202380</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4984,7 +5013,7 @@
         <v>1205302</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4992,7 +5021,7 @@
         <v>1206915</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5000,7 +5029,7 @@
         <v>1211512</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5008,7 +5037,7 @@
         <v>1217021</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5016,7 +5045,7 @@
         <v>1217081</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5024,7 +5053,7 @@
         <v>1231997</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5032,7 +5061,7 @@
         <v>1236804</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5040,7 +5069,7 @@
         <v>1241552</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5048,7 +5077,7 @@
         <v>1335725</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5056,7 +5085,7 @@
         <v>1338767</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5064,7 +5093,7 @@
         <v>1390146</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5072,7 +5101,7 @@
         <v>1471350</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5080,7 +5109,7 @@
         <v>1474272</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5088,7 +5117,7 @@
         <v>1477194</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5096,7 +5125,7 @@
         <v>1480146</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5104,7 +5133,7 @@
         <v>1483068</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5112,7 +5141,7 @@
         <v>1490007</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5120,7 +5149,7 @@
         <v>1492929</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5128,7 +5157,7 @@
         <v>1551307</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5136,7 +5165,7 @@
         <v>1551338</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5144,7 +5173,7 @@
         <v>1561534</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5152,7 +5181,7 @@
         <v>1561565</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5160,7 +5189,7 @@
         <v>1566283</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5168,7 +5197,7 @@
         <v>1566314</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5176,7 +5205,7 @@
         <v>1567013</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5184,7 +5213,7 @@
         <v>1567044</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5192,7 +5221,7 @@
         <v>1580892</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5200,7 +5229,7 @@
         <v>1580923</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5208,7 +5237,7 @@
         <v>1581622</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5216,7 +5245,7 @@
         <v>1581653</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5224,7 +5253,7 @@
         <v>1586370</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5232,7 +5261,7 @@
         <v>1586401</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5240,7 +5269,7 @@
         <v>1591119</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5248,7 +5277,7 @@
         <v>1591150</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5256,7 +5285,7 @@
         <v>1789721</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5264,7 +5293,7 @@
         <v>1794470</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5272,7 +5301,7 @@
         <v>1823079</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5280,7 +5309,7 @@
         <v>1827827</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5288,7 +5317,7 @@
         <v>2244569</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5296,7 +5325,7 @@
         <v>2247371</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5304,7 +5333,7 @@
         <v>2398946</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5312,7 +5341,7 @@
         <v>2473821</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5320,7 +5349,7 @@
         <v>2498015</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5328,7 +5357,7 @@
         <v>2498046</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5336,7 +5365,7 @@
         <v>2508242</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5344,7 +5373,7 @@
         <v>2508273</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5352,7 +5381,7 @@
         <v>2538558</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5360,7 +5389,7 @@
         <v>2538589</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5368,7 +5397,7 @@
         <v>2543306</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5376,7 +5405,7 @@
         <v>2543337</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5384,7 +5413,7 @@
         <v>2615259</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5392,7 +5421,7 @@
         <v>2615290</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5400,7 +5429,7 @@
         <v>2733874</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5408,7 +5437,7 @@
         <v>2743703</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5416,7 +5445,7 @@
         <v>2749182</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5424,7 +5453,7 @@
         <v>2758710</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5432,7 +5461,7 @@
         <v>2763427</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5440,71 +5469,79 @@
         <v>2767810</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B263" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>435</v>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A271" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="B271" s="20" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -5519,7 +5556,9 @@
   </sheetPr>
   <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5537,66 +5576,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>436</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>438</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>440</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>442</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>446</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5604,7 +5643,7 @@
         <v>69034</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5612,7 +5651,7 @@
         <v>69065</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5620,7 +5659,7 @@
         <v>69246</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5628,23 +5667,23 @@
         <v>69277</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>456</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5652,7 +5691,7 @@
         <v>153038</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5660,7 +5699,7 @@
         <v>168744</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5668,7 +5707,7 @@
         <v>168775</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5676,7 +5715,7 @@
         <v>168956</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5684,79 +5723,79 @@
         <v>168987</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>469</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>473</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>475</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>477</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>479</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5764,7 +5803,7 @@
         <v>483949</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5772,7 +5811,7 @@
         <v>517551</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5780,7 +5819,7 @@
         <v>538005</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5788,23 +5827,23 @@
         <v>538217</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5812,7 +5851,7 @@
         <v>1360531</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5820,7 +5859,7 @@
         <v>1360562</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5828,7 +5867,7 @@
         <v>1360743</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5836,23 +5875,23 @@
         <v>1360774</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>497</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5860,7 +5899,7 @@
         <v>1494940</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5868,7 +5907,7 @@
         <v>1494971</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5876,7 +5915,7 @@
         <v>1495152</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5884,55 +5923,55 @@
         <v>1495183</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>503</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>509</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>511</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>513</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5940,7 +5979,7 @@
         <v>2624635</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5948,7 +5987,7 @@
         <v>46023</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5956,143 +5995,143 @@
         <v>14305</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>530</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>532</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>536</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>548</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>550</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6100,7 +6139,7 @@
         <v>59537</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6108,7 +6147,7 @@
         <v>477891</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6116,7 +6155,7 @@
         <v>483369</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6124,7 +6163,7 @@
         <v>503093</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6132,7 +6171,7 @@
         <v>504189</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6140,7 +6179,7 @@
         <v>557393</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6148,7 +6187,7 @@
         <v>596443</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6156,7 +6195,7 @@
         <v>596474</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6164,7 +6203,7 @@
         <v>598999</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6172,7 +6211,7 @@
         <v>604843</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6180,7 +6219,7 @@
         <v>607035</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6188,7 +6227,7 @@
         <v>607066</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6196,7 +6235,7 @@
         <v>613244</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6204,7 +6243,7 @@
         <v>657074</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -6212,7 +6251,7 @@
         <v>1142846</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6220,7 +6259,7 @@
         <v>1145037</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6228,7 +6267,7 @@
         <v>1202380</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6236,7 +6275,7 @@
         <v>1205302</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6244,7 +6283,7 @@
         <v>1206915</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6252,7 +6291,7 @@
         <v>1211512</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6260,7 +6299,7 @@
         <v>1217021</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6268,7 +6307,7 @@
         <v>1217081</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6276,7 +6315,7 @@
         <v>1231997</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6284,7 +6323,7 @@
         <v>1236773</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6292,7 +6331,7 @@
         <v>1236804</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6300,7 +6339,7 @@
         <v>1241552</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6308,7 +6347,7 @@
         <v>1335725</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6316,7 +6355,7 @@
         <v>1338767</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6324,7 +6363,7 @@
         <v>1390146</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6332,7 +6371,7 @@
         <v>1471350</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6340,7 +6379,7 @@
         <v>1474272</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6348,7 +6387,7 @@
         <v>1477194</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6356,7 +6395,7 @@
         <v>1576388</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6364,7 +6403,7 @@
         <v>1576419</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6372,7 +6411,7 @@
         <v>1576448</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6380,7 +6419,7 @@
         <v>1576479</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6388,7 +6427,7 @@
         <v>1578580</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6396,7 +6435,7 @@
         <v>1584789</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6404,7 +6443,7 @@
         <v>1584820</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6412,7 +6451,7 @@
         <v>1584848</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6420,7 +6459,7 @@
         <v>1584879</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6428,7 +6467,7 @@
         <v>1584909</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6436,7 +6475,7 @@
         <v>1584940</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6444,7 +6483,7 @@
         <v>1584970</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6452,7 +6491,7 @@
         <v>1585001</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6460,7 +6499,7 @@
         <v>1585032</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6468,7 +6507,7 @@
         <v>1585062</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6476,7 +6515,7 @@
         <v>1585093</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6484,103 +6523,103 @@
         <v>1585123</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>601</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>607</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>609</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>611</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>613</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B129" s="13" t="s">
         <v>617</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>621</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6588,7 +6627,7 @@
         <v>1620217</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6596,7 +6635,7 @@
         <v>1789721</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -6604,7 +6643,7 @@
         <v>1794470</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -6612,7 +6651,7 @@
         <v>1823079</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6620,31 +6659,31 @@
         <v>1827827</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>632</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>634</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -6652,7 +6691,7 @@
         <v>2244569</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6660,7 +6699,7 @@
         <v>2247371</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -6668,7 +6707,7 @@
         <v>2398946</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -6676,7 +6715,7 @@
         <v>2473821</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -6684,7 +6723,7 @@
         <v>2733874</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -6692,7 +6731,7 @@
         <v>2743703</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -6700,7 +6739,7 @@
         <v>2749182</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -6708,7 +6747,7 @@
         <v>2758710</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -6716,7 +6755,7 @@
         <v>2763427</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6724,79 +6763,79 @@
         <v>2767810</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>648</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>654</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>658</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>660</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -6804,7 +6843,7 @@
         <v>183020</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -6812,7 +6851,7 @@
         <v>186335</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -6820,7 +6859,7 @@
         <v>186366</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -6828,7 +6867,7 @@
         <v>1172430</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -6836,47 +6875,47 @@
         <v>1177178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B165" s="13" t="s">
         <v>669</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>671</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>673</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B168" s="13" t="s">
         <v>675</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>677</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -6884,15 +6923,15 @@
         <v>375137</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>680</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -6900,7 +6939,7 @@
         <v>572368</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -6908,7 +6947,7 @@
         <v>777269</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -6916,7 +6955,7 @@
         <v>872963</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -6924,7 +6963,7 @@
         <v>1212638</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -6932,7 +6971,7 @@
         <v>1809445</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -6940,7 +6979,7 @@
         <v>1824420</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -6948,7 +6987,7 @@
         <v>2188932</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -6956,7 +6995,7 @@
         <v>2188960</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -6964,7 +7003,7 @@
         <v>2188991</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -6972,7 +7011,7 @@
         <v>2189021</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -6980,15 +7019,15 @@
         <v>47484</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>693</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -6996,7 +7035,7 @@
         <v>172396</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -7004,7 +7043,7 @@
         <v>172456</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -7012,23 +7051,23 @@
         <v>172609</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B187" s="13" t="s">
         <v>698</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B188" s="13" t="s">
         <v>700</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -7036,7 +7075,7 @@
         <v>207826</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -7044,7 +7083,7 @@
         <v>213304</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -7052,15 +7091,15 @@
         <v>213517</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B192" s="13" t="s">
         <v>705</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7068,7 +7107,7 @@
         <v>1501879</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -7076,7 +7115,7 @@
         <v>1502092</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -7084,135 +7123,135 @@
         <v>1502153</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>710</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B197" s="13" t="s">
         <v>712</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B198" s="13" t="s">
         <v>714</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>716</v>
-      </c>
-      <c r="B199" s="13" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B200" s="13" t="s">
         <v>718</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B201" s="13" t="s">
         <v>720</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B202" s="13" t="s">
         <v>722</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>724</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="B204" s="13" t="s">
         <v>726</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B205" s="13" t="s">
         <v>728</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B206" s="13" t="s">
         <v>730</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B207" s="13" t="s">
         <v>732</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B208" s="13" t="s">
         <v>734</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B209" s="13" t="s">
         <v>736</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>738</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B211" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -7220,7 +7259,7 @@
         <v>7672</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -7228,7 +7267,7 @@
         <v>7703</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -7236,7 +7275,7 @@
         <v>7731</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -7244,7 +7283,7 @@
         <v>7762</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -7252,7 +7291,7 @@
         <v>445963</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -7260,7 +7299,7 @@
         <v>445994</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -7268,7 +7307,7 @@
         <v>658534</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -7276,7 +7315,7 @@
         <v>976661</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -7284,7 +7323,7 @@
         <v>1290769</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -7292,23 +7331,23 @@
         <v>1290981</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>751</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="B223" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -7316,7 +7355,7 @@
         <v>1798456</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -7324,7 +7363,7 @@
         <v>1798669</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -7332,7 +7371,7 @@
         <v>1830597</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -7340,39 +7379,39 @@
         <v>1830810</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B228" s="13" t="s">
         <v>759</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="B229" s="13" t="s">
         <v>761</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="B230" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B231" s="13" t="s">
         <v>765</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -7380,7 +7419,7 @@
         <v>2267824</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -7388,7 +7427,7 @@
         <v>2267852</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -7396,7 +7435,7 @@
         <v>2267974</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -7404,7 +7443,7 @@
         <v>2268005</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -7412,23 +7451,23 @@
         <v>2268036</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B237" s="13" t="s">
         <v>772</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B238" s="13" t="s">
         <v>774</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -7436,7 +7475,7 @@
         <v>2337950</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -7444,7 +7483,7 @@
         <v>2337978</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -7452,7 +7491,7 @@
         <v>2409142</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -7460,87 +7499,87 @@
         <v>2409355</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B243" s="13" t="s">
         <v>780</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B244" s="13" t="s">
         <v>782</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="B245" s="13" t="s">
         <v>784</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="B246" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="B247" s="13" t="s">
         <v>788</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="B248" s="13" t="s">
         <v>790</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="B249" s="13" t="s">
         <v>792</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="B250" s="13" t="s">
         <v>794</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="B251" s="13" t="s">
         <v>796</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="B252" s="13" t="s">
         <v>798</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -7548,7 +7587,7 @@
         <v>99348</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -7556,7 +7595,7 @@
         <v>99379</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -7564,7 +7603,7 @@
         <v>99439</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -7572,7 +7611,7 @@
         <v>99561</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -7580,23 +7619,23 @@
         <v>99592</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B258" s="13" t="s">
         <v>805</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="B259" s="13" t="s">
         <v>807</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -7604,7 +7643,7 @@
         <v>1293691</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -7612,23 +7651,23 @@
         <v>1293903</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="B262" s="13" t="s">
         <v>811</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="B263" s="13" t="s">
         <v>813</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -7636,7 +7675,7 @@
         <v>1444901</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -7644,23 +7683,23 @@
         <v>1445114</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B266" s="13" t="s">
         <v>817</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B267" s="13" t="s">
         <v>819</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -7668,7 +7707,7 @@
         <v>1804300</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -7676,23 +7715,23 @@
         <v>1804513</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="B270" s="13" t="s">
         <v>823</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="B271" s="13" t="s">
         <v>825</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -7700,7 +7739,7 @@
         <v>2223233</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -7708,7 +7747,7 @@
         <v>2463563</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -7716,7 +7755,7 @@
         <v>2463775</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -7724,7 +7763,7 @@
         <v>2423782</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -7732,15 +7771,15 @@
         <v>2498626</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="B277" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -7748,7 +7787,7 @@
         <v>2597972</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -7756,15 +7795,15 @@
         <v>2714119</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B280" s="13" t="s">
         <v>836</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -7772,7 +7811,7 @@
         <v>2714209</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -7780,7 +7819,7 @@
         <v>2714239</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -7788,7 +7827,7 @@
         <v>2714270</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -7796,7 +7835,7 @@
         <v>2714300</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -7804,7 +7843,7 @@
         <v>2714331</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -7812,55 +7851,55 @@
         <v>2714362</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B287" s="13" t="s">
         <v>844</v>
-      </c>
-      <c r="B287" s="13" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B288" s="13" t="s">
         <v>846</v>
-      </c>
-      <c r="B288" s="13" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B289" s="13" t="s">
         <v>848</v>
-      </c>
-      <c r="B289" s="13" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="B290" s="13" t="s">
         <v>850</v>
-      </c>
-      <c r="B290" s="13" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="B291" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="B291" s="13" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="B292" s="13" t="s">
         <v>854</v>
-      </c>
-      <c r="B292" s="13" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -7868,7 +7907,7 @@
         <v>801710</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -7876,7 +7915,7 @@
         <v>801741</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -7884,7 +7923,7 @@
         <v>807918</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -7892,7 +7931,7 @@
         <v>807949</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -7900,7 +7939,7 @@
         <v>807978</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -7908,7 +7947,7 @@
         <v>808039</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -7916,7 +7955,7 @@
         <v>808070</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -7924,7 +7963,7 @@
         <v>808100</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -7932,7 +7971,7 @@
         <v>808131</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -7940,7 +7979,7 @@
         <v>817415</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -7948,7 +7987,7 @@
         <v>817446</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -7956,7 +7995,7 @@
         <v>817474</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7964,7 +8003,7 @@
         <v>817535</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7972,7 +8011,7 @@
         <v>817566</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7980,7 +8019,7 @@
         <v>817596</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7988,7 +8027,7 @@
         <v>817627</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7996,7 +8035,7 @@
         <v>822894</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -8004,7 +8043,7 @@
         <v>822925</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -8012,7 +8051,7 @@
         <v>822953</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -8020,7 +8059,7 @@
         <v>823014</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -8028,7 +8067,7 @@
         <v>823045</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -8036,7 +8075,7 @@
         <v>823075</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -8044,7 +8083,7 @@
         <v>823106</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -8052,7 +8091,7 @@
         <v>827642</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -8060,7 +8099,7 @@
         <v>827673</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -8068,7 +8107,7 @@
         <v>827701</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -8076,7 +8115,7 @@
         <v>827762</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -8084,7 +8123,7 @@
         <v>827793</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -8092,7 +8131,7 @@
         <v>827823</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -8100,7 +8139,7 @@
         <v>827854</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -8108,7 +8147,7 @@
         <v>1562145</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -8116,7 +8155,7 @@
         <v>674240</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -8124,7 +8163,7 @@
         <v>683006</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -8132,7 +8171,7 @@
         <v>683006</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -8140,7 +8179,7 @@
         <v>1483068</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -8148,7 +8187,7 @@
         <v>1490007</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -8156,7 +8195,7 @@
         <v>1492929</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -8164,7 +8203,7 @@
         <v>798089</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -8172,7 +8211,7 @@
         <v>912044</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -8180,7 +8219,7 @@
         <v>915696</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -8188,7 +8227,7 @@
         <v>916427</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -8196,7 +8235,7 @@
         <v>1551277</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -8204,7 +8243,7 @@
         <v>1551307</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -8212,7 +8251,7 @@
         <v>1551338</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -8220,7 +8259,7 @@
         <v>1561504</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -8228,7 +8267,7 @@
         <v>1561534</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -8236,7 +8275,7 @@
         <v>1561565</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -8244,7 +8283,7 @@
         <v>1566253</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -8252,7 +8291,7 @@
         <v>1566283</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -8260,7 +8299,7 @@
         <v>1566314</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -8268,7 +8307,7 @@
         <v>1566983</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -8276,7 +8315,7 @@
         <v>1567013</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -8284,7 +8323,7 @@
         <v>1567044</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -8292,7 +8331,7 @@
         <v>1580862</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -8300,7 +8339,7 @@
         <v>1580892</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -8308,7 +8347,7 @@
         <v>1580923</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -8316,7 +8355,7 @@
         <v>1581592</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -8324,7 +8363,7 @@
         <v>1581622</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -8332,7 +8371,7 @@
         <v>1581653</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -8340,7 +8379,7 @@
         <v>1586340</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -8348,7 +8387,7 @@
         <v>1586370</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -8356,7 +8395,7 @@
         <v>1586401</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -8364,7 +8403,7 @@
         <v>1591089</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -8372,7 +8411,7 @@
         <v>1591119</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -8380,7 +8419,7 @@
         <v>1591150</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -8388,7 +8427,7 @@
         <v>2497985</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -8396,7 +8435,7 @@
         <v>2498015</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -8404,7 +8443,7 @@
         <v>2498046</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -8412,7 +8451,7 @@
         <v>2508212</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -8420,7 +8459,7 @@
         <v>2508242</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -8428,7 +8467,7 @@
         <v>2508273</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -8436,7 +8475,7 @@
         <v>2538528</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -8444,7 +8483,7 @@
         <v>2538558</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -8452,7 +8491,7 @@
         <v>2538589</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -8460,7 +8499,7 @@
         <v>2543276</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -8468,7 +8507,7 @@
         <v>2543306</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -8476,7 +8515,7 @@
         <v>2543337</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -8484,7 +8523,7 @@
         <v>2615229</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -8492,7 +8531,7 @@
         <v>2615259</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -8500,103 +8539,103 @@
         <v>2615290</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B373" s="13" t="s">
         <v>936</v>
-      </c>
-      <c r="B373" s="13" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B374" s="13" t="s">
         <v>938</v>
-      </c>
-      <c r="B374" s="13" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="B375" s="13" t="s">
         <v>940</v>
-      </c>
-      <c r="B375" s="13" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="B376" s="13" t="s">
         <v>942</v>
-      </c>
-      <c r="B376" s="13" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="B377" s="13" t="s">
         <v>944</v>
-      </c>
-      <c r="B377" s="13" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="B378" s="13" t="s">
         <v>946</v>
-      </c>
-      <c r="B378" s="13" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B379" s="13" t="s">
         <v>948</v>
-      </c>
-      <c r="B379" s="13" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="B380" s="13" t="s">
         <v>950</v>
-      </c>
-      <c r="B380" s="13" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="B381" s="13" t="s">
         <v>952</v>
-      </c>
-      <c r="B381" s="13" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B382" s="13" t="s">
         <v>954</v>
-      </c>
-      <c r="B382" s="13" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B383" s="13" t="s">
         <v>956</v>
-      </c>
-      <c r="B383" s="13" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="B384" s="13" t="s">
         <v>958</v>
-      </c>
-      <c r="B384" s="13" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -8604,7 +8643,7 @@
         <v>396291</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -8612,7 +8651,7 @@
         <v>396381</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -8620,7 +8659,7 @@
         <v>396442</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -8628,7 +8667,7 @@
         <v>398482</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -8636,7 +8675,7 @@
         <v>1311953</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -8644,7 +8683,7 @@
         <v>1315605</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -8652,7 +8691,7 @@
         <v>1321814</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -8660,13 +8699,13 @@
         <v>2665177</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="13"/>
       <c r="B393" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="394" spans="1:2">
